--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\School\FIRW MAI\Genetic Algorithms\Project-TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8502870F-D540-409E-8D7B-88B0DA40CF91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70F2701-DB68-47BE-9B6A-9B76056D9D75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-3300" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t xml:space="preserve">Value </t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>greedy</t>
+  </si>
+  <si>
+    <t>popsize=250, offspring=150, k=5, alpha=0.05, prc=0.99, crowding (chance:0.5, hammingdistance)</t>
   </si>
 </sst>
 </file>
@@ -538,7 +541,7 @@
   <dimension ref="B2:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,9 +594,17 @@
       <c r="C5" s="5">
         <v>27200</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
+        <f>AVERAGE(28377, 28907, 29424)</f>
+        <v>28902.666666666668</v>
+      </c>
+      <c r="F5" s="7">
+        <f>AVERAGE(51.79, 62.86, 48.13,38.67)</f>
+        <v>50.362499999999997</v>
+      </c>
       <c r="J5">
         <v>1</v>
       </c>
@@ -615,6 +626,12 @@
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="22"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\School\FIRW MAI\Genetic Algorithms\Project-TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70F2701-DB68-47BE-9B6A-9B76056D9D75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A8EDF3-5D08-46CA-B9B3-21F30530E6B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t xml:space="preserve">Value </t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>popsize=250, offspring=150, k=5, alpha=0.05, prc=0.99, crowding (chance:0.5, hammingdistance)</t>
+  </si>
+  <si>
+    <t>popsize=250, offspring=150,k=5, alpha=0.5, prc=0.99, no  crowding, random selection 1/4 mutations, pheur=0.5</t>
   </si>
 </sst>
 </file>
@@ -230,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -258,6 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -538,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O16"/>
+  <dimension ref="B2:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,7 +553,7 @@
     <col min="5" max="5" width="16.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="2"/>
     <col min="10" max="10" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="85.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="93" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -639,6 +643,12 @@
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>
       <c r="F7" s="23"/>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
@@ -703,9 +713,17 @@
       <c r="C12" s="5">
         <v>9000</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6">
+        <f>AVERAGE(10092)</f>
+        <v>10092</v>
+      </c>
+      <c r="F12" s="7">
+        <f>AVERAGE(236)</f>
+        <v>236</v>
+      </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="22" t="s">
@@ -739,7 +757,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="26">
-        <v>113683</v>
+        <v>95300</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
@@ -750,14 +768,17 @@
         <v>10</v>
       </c>
       <c r="C16" s="19">
-        <v>95300</v>
+        <v>113683</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
       <c r="F16" s="11"/>
     </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="27"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\School\FIRW MAI\Genetic Algorithms\Project-TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A8EDF3-5D08-46CA-B9B3-21F30530E6B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847B6705-E487-4862-BCB1-AEAF2A6ACCCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -545,7 +545,7 @@
   <dimension ref="B2:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,12 +717,12 @@
         <v>3</v>
       </c>
       <c r="E12" s="6">
-        <f>AVERAGE(10092)</f>
-        <v>10092</v>
+        <f>AVERAGE(10092, 10372)</f>
+        <v>10232</v>
       </c>
       <c r="F12" s="7">
-        <f>AVERAGE(236)</f>
-        <v>236</v>
+        <f>AVERAGE(236,251)</f>
+        <v>243.5</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\School\FIRW MAI\Genetic Algorithms\Project-TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847B6705-E487-4862-BCB1-AEAF2A6ACCCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E5973B-B4B4-452B-BA5A-D4614156EA19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,10 @@
     <t>greedy</t>
   </si>
   <si>
-    <t>popsize=250, offspring=150, k=5, alpha=0.05, prc=0.99, crowding (chance:0.5, hammingdistance)</t>
-  </si>
-  <si>
-    <t>popsize=250, offspring=150,k=5, alpha=0.5, prc=0.99, no  crowding, random selection 1/4 mutations, pheur=0.5</t>
+    <t>popsize=250, offspring=150, k-tournament (k=5), alpha=0.25, prc=0.99, elitism, pheur = 0.5</t>
+  </si>
+  <si>
+    <t>popsize=250, offspring=150, k-tournament (k=5), alpha=0.5, prc=0.99, elitism, pheur = 0.5</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="B2:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,12 +602,12 @@
         <v>2</v>
       </c>
       <c r="E5" s="6">
-        <f>AVERAGE(28377, 28907, 29424)</f>
-        <v>28902.666666666668</v>
+        <f>AVERAGE(27159, 27154)</f>
+        <v>27156.5</v>
       </c>
       <c r="F5" s="7">
-        <f>AVERAGE(51.79, 62.86, 48.13,38.67)</f>
-        <v>50.362499999999997</v>
+        <f>AVERAGE(3.99, 15.85)</f>
+        <v>9.92</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -759,9 +759,15 @@
       <c r="C15" s="26">
         <v>95300</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
+      <c r="D15" s="26">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>111000</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="10" t="s">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\School\FIRW MAI\Genetic Algorithms\Project-TSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E5973B-B4B4-452B-BA5A-D4614156EA19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17485D77-99FA-47D1-9969-FC492C3F42F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -545,7 +545,7 @@
   <dimension ref="B2:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -675,7 +675,9 @@
         <v>7350</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6">
+        <v>7744.91</v>
+      </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
@@ -686,7 +688,9 @@
         <v>8637</v>
       </c>
       <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
+      <c r="E10" s="18">
+        <v>7521</v>
+      </c>
       <c r="F10" s="23"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
@@ -733,7 +737,9 @@
         <v>11385</v>
       </c>
       <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="E13" s="25">
+        <v>9842.68</v>
+      </c>
       <c r="F13" s="23"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
@@ -763,10 +769,10 @@
         <v>3</v>
       </c>
       <c r="E15" s="6">
-        <v>111000</v>
+        <v>112205</v>
       </c>
       <c r="F15" s="7">
-        <v>1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
